--- a/data/trans_dic/P6902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,52%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>32,64; 65,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>41,42; 69,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>28,42; 71,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>47,63; 85,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>47,14; 77,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>26,77; 65,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>43,24; 67,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>47,32; 67,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>34,51; 65,4</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,73%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>30,28; 54,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>35,12; 62,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>17,67; 38,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>27,35; 64,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>42,52; 76,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>28,47; 64,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>47,05; 76,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>43,44; 68,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>38,61; 58,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>36,76; 59,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>30,67; 48,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>40,39; 62,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>25,11; 57,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>14,74; 49,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>4,24; 35,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>34,38; 62,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>4,57; 39,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>24,95; 76,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>7,3; 56,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>50,19; 73,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>20,55; 46,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>24,87; 54,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>10,51; 38,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>46,09; 64,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,14%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>33,02; 58,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>44,38; 66,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>59,77; 90,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>55,76; 91,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>38,67; 78,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>60,26; 83,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>42,98; 79,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>34,35; 80,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>37,81; 60,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>54,33; 70,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>57,75; 81,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>48,28; 81,72</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>12,06; 48,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0,0; 33,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>33,91; 88,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>37,29; 76,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>29,1; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>25,97; 90,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>56,75; 91,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>22,72; 58,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>14,14; 51,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>53,54; 91,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>50,46; 77,11</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,22%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>26,57; 57,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>35,04; 64,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>12,62; 50,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>35,75; 68,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>44,83; 93,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>25,06; 73,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>14,56; 87,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>38,17; 67,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>37,32; 63,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>35,73; 61,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>17,09; 53,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>41,65; 62,06</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,29%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>36,3; 58,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>45,92; 72,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>29,62; 52,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>54,28; 77,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>33,69; 62,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>40,85; 70,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>52,69; 79,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>64,9; 83,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>40,13; 56,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>48,37; 68,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>42,98; 60,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>64,11; 78,01</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,56%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>31,95; 51,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>21,23; 48,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>35,51; 67,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>65,51; 88,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>28,89; 56,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>23,31; 63,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>23,16; 66,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>44,62; 84,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>32,96; 49,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>27,04; 48,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>36,59; 62,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>59,85; 83,41</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,7%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>38,46; 48,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>41,03; 52,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>38,13; 49,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,43; 67,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,12; 57,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>49,47; 63,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>53,42; 66,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,3; 70,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>41,73; 49,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>47,09; 55,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>45,54; 54,18</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>58,81; 67,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>50,31%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,25; 74,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,42; 71,48</t>
+          <t>29,77; 73,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,18; 96,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 65,21</t>
+          <t>26,9; 66,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,55; 80,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,51; 65,4</t>
+          <t>35,55; 67,67</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>50,27%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,35; 64,1</t>
+          <t>26,8; 64,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,44; 68,71</t>
+          <t>43,33; 68,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,39; 62,63</t>
+          <t>39,43; 62,28</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,24%</t>
+          <t>55,28%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,38; 62,38</t>
+          <t>34,41; 62,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,19; 73,34</t>
+          <t>50,32; 73,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,09; 64,02</t>
+          <t>45,8; 63,88</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,74%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>69,14%</t>
+          <t>55,81%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,38; 66,48</t>
+          <t>38,06; 68,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,76; 91,5</t>
+          <t>55,59; 91,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,26; 83,72</t>
+          <t>43,38; 79,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,35; 80,14</t>
+          <t>13,28; 79,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,33; 70,96</t>
+          <t>45,37; 68,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,28; 81,72</t>
+          <t>24,1; 80,32</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>57,6%</t>
+          <t>57,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>78,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>65,48%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,29; 76,57</t>
+          <t>37,16; 76,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,75; 91,72</t>
+          <t>57,55; 91,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,46; 77,11</t>
+          <t>50,42; 76,79</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>51,92%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,75; 68,43</t>
+          <t>35,42; 68,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,17; 67,73</t>
+          <t>37,93; 67,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>41,65; 62,06</t>
+          <t>41,26; 61,86</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>71,16%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>54,28; 77,2</t>
+          <t>54,09; 77,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>64,9; 83,06</t>
+          <t>64,98; 83,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>64,11; 78,01</t>
+          <t>63,84; 77,86</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79,27%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>75,97%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>65,51; 88,75</t>
+          <t>65,5; 88,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,62; 84,38</t>
+          <t>48,93; 84,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>59,85; 83,41</t>
+          <t>62,51; 83,69</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>61,16%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>56,43; 67,18</t>
+          <t>55,75; 66,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>57,3; 70,0</t>
+          <t>43,77; 68,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>58,81; 67,57</t>
+          <t>50,28; 65,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,64; 65,12</t>
+          <t>33,35; 66,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,25; 74,99</t>
+          <t>41,16; 73,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,42; 69,61</t>
+          <t>39,88; 68,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,77; 73,9</t>
+          <t>32,3; 75,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,63; 85,37</t>
+          <t>44,81; 81,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,18; 96,22</t>
+          <t>66,87; 96,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,14; 77,69</t>
+          <t>47,83; 77,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,9; 66,22</t>
+          <t>24,66; 65,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,24; 67,7</t>
+          <t>43,99; 67,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,55; 80,35</t>
+          <t>58,02; 80,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,32; 67,91</t>
+          <t>49,46; 68,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,55; 67,67</t>
+          <t>34,58; 66,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,28; 54,84</t>
+          <t>31,52; 55,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,12; 62,31</t>
+          <t>35,12; 62,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 38,3</t>
+          <t>18,51; 38,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,8; 64,01</t>
+          <t>27,1; 64,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,52; 76,5</t>
+          <t>44,99; 76,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,47; 64,44</t>
+          <t>30,03; 64,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,05; 76,03</t>
+          <t>46,67; 74,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,33; 68,4</t>
+          <t>42,2; 70,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,61; 58,5</t>
+          <t>38,1; 58,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,76; 59,29</t>
+          <t>38,34; 58,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,67; 48,04</t>
+          <t>29,19; 47,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,43; 62,28</t>
+          <t>39,45; 61,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,11; 57,82</t>
+          <t>25,13; 58,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 49,38</t>
+          <t>14,6; 48,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 35,07</t>
+          <t>4,41; 40,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,41; 62,31</t>
+          <t>34,14; 61,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 39,76</t>
+          <t>4,56; 35,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 76,22</t>
+          <t>26,96; 76,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 56,44</t>
+          <t>7,38; 58,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,32; 73,39</t>
+          <t>50,49; 73,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 46,58</t>
+          <t>21,82; 46,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 54,17</t>
+          <t>24,68; 54,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 38,47</t>
+          <t>10,7; 38,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,8; 63,88</t>
+          <t>45,22; 63,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,02; 58,75</t>
+          <t>33,29; 58,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,06; 68,53</t>
+          <t>37,91; 68,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,77; 90,92</t>
+          <t>58,49; 90,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 91,37</t>
+          <t>57,96; 93,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,67; 78,1</t>
+          <t>35,14; 75,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,38; 79,01</t>
+          <t>39,87; 78,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,98; 79,58</t>
+          <t>43,91; 80,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 79,61</t>
+          <t>15,92; 79,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,81; 60,73</t>
+          <t>36,45; 59,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,37; 68,18</t>
+          <t>45,34; 68,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57,75; 81,18</t>
+          <t>56,61; 81,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,1; 80,32</t>
+          <t>25,73; 80,22</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1285,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,06; 48,69</t>
+          <t>13,34; 53,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,98</t>
+          <t>0,0; 32,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,91; 88,14</t>
+          <t>31,45; 87,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,16; 76,22</t>
+          <t>38,06; 76,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,1; 100,0</t>
+          <t>29,01; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,97; 90,81</t>
+          <t>29,25; 91,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,34 +1320,34 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57,55; 91,76</t>
+          <t>57,99; 91,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,72; 58,92</t>
+          <t>24,95; 60,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,14; 51,49</t>
+          <t>15,23; 54,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,54; 91,08</t>
+          <t>51,21; 90,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,42; 76,79</t>
+          <t>51,22; 78,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,57; 57,62</t>
+          <t>25,91; 58,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,04; 64,46</t>
+          <t>32,99; 64,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,62; 50,24</t>
+          <t>13,1; 47,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,42; 68,09</t>
+          <t>36,2; 67,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,83; 93,74</t>
+          <t>44,86; 93,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,06; 73,83</t>
+          <t>24,95; 74,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 87,42</t>
+          <t>14,49; 82,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,93; 67,37</t>
+          <t>38,09; 66,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,32; 63,4</t>
+          <t>36,63; 64,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,73; 61,71</t>
+          <t>37,02; 62,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 53,28</t>
+          <t>17,24; 50,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>41,26; 61,86</t>
+          <t>39,79; 61,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,3; 58,01</t>
+          <t>37,0; 59,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,92; 72,63</t>
+          <t>46,63; 74,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,62; 52,68</t>
+          <t>29,22; 53,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>54,09; 77,29</t>
+          <t>54,91; 77,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,69; 62,88</t>
+          <t>33,58; 63,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,85; 70,01</t>
+          <t>42,17; 72,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,69; 79,05</t>
+          <t>53,63; 78,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>64,98; 83,1</t>
+          <t>65,48; 82,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,13; 56,67</t>
+          <t>38,8; 55,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,37; 68,47</t>
+          <t>48,64; 67,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>42,98; 60,29</t>
+          <t>41,34; 60,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>63,84; 77,86</t>
+          <t>63,62; 77,7</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,95; 51,3</t>
+          <t>31,22; 49,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,23; 48,51</t>
+          <t>21,18; 48,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,51; 67,37</t>
+          <t>35,86; 68,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>65,5; 88,83</t>
+          <t>66,37; 89,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,89; 56,1</t>
+          <t>27,62; 57,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,31; 63,14</t>
+          <t>24,72; 65,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,16; 66,37</t>
+          <t>22,89; 67,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,93; 84,45</t>
+          <t>50,06; 84,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,96; 49,08</t>
+          <t>33,8; 50,33</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27,04; 48,72</t>
+          <t>25,82; 49,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>36,59; 62,24</t>
+          <t>35,82; 61,76</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>62,51; 83,69</t>
+          <t>63,44; 83,91</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>38,46; 48,43</t>
+          <t>38,71; 48,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>41,03; 52,06</t>
+          <t>40,96; 52,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38,13; 49,1</t>
+          <t>37,8; 48,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55,75; 66,69</t>
+          <t>56,4; 67,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,12; 57,5</t>
+          <t>45,02; 58,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,47; 63,88</t>
+          <t>50,04; 64,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>53,42; 66,65</t>
+          <t>53,61; 67,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>43,77; 68,61</t>
+          <t>42,3; 68,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>41,73; 49,52</t>
+          <t>42,18; 49,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>47,09; 55,93</t>
+          <t>46,69; 55,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>45,54; 54,18</t>
+          <t>45,38; 54,22</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,28; 65,88</t>
+          <t>51,16; 66,32</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente nervioso y estresado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21163</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22288</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32556</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12999</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19192</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25877</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26078</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7037</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40355</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>48165</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58634</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20036</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14289; 28302</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15686; 28189</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23363; 39957</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7775; 18178</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12825; 23397</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20159; 29085</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19553; 31845</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3885; 10388</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31440; 48511</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39603; 55098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49195; 67867</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13772; 26431</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31225</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28048</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22854</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20690</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19684</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15915</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26312</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25415</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50909</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43963</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49165</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46105</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22819; 40219</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19873; 35611</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15320; 31880</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12542; 30075</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14707; 25042</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10303; 22177</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19927; 31782</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19179; 31809</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40035; 60995</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34850; 53528</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36632; 59593</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36189; 56479</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7545</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3575</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24003</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9073</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3702</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28749</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19153</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16618</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52753</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9202; 21475</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3695; 12362</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>938; 8566</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16896; 30530</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>991; 7806</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4835; 13651</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>922; 7338</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23188; 33597</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12727; 27051</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10673; 23587</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3612; 13061</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43147; 60452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26628</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24592</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25013</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31353</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18235</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19020</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36183</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39635</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42828</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44033</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>67536</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19415; 34322</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17440; 31701</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18988; 29505</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23387; 37640</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7978; 17096</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11775; 23265</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13145; 24057</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12837; 64224</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29534; 48423</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34253; 51638</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35322; 51055</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>31137; 97070</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6928</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9845</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10147</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5011</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7785</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5771</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8674</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11940</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8827</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15616</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18821</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3062; 12208</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5200</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4677; 13056</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6759; 13619</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2022; 6970</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3411; 10624</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4246; 5771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6371; 10086</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7468; 18172</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4239; 15302</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10571; 18741</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14723; 22440</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17706</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21100</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16454</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7895</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3487</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15648</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27994</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28995</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9593</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32102</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10831; 24503</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14313; 27814</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2940; 10587</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11445; 21445</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6323; 13109</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3789; 11239</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1076; 6093</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11510; 19981</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20479; 36044</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>21683; 36610</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5147; 15018</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24605; 38293</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>41853</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>32744</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31772</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>49341</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>20959</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26339</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>37138</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52915</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>62812</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>59083</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>68911</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>102256</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>32723; 52665</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25383; 40530</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22895; 41561</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>40180; 56998</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14619; 27634</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19559; 33654</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29864; 43982</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>46183; 58212</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51212; 73521</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>49036; 68281</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>55411; 80816</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>91426; 111658</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>44222</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>15011</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>20273</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>44979</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>21059</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>13067</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9526</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>39701</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>65281</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>28078</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>29799</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>84679</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>34001; 54106</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9557; 22003</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>14085; 26810</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>37667; 50700</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>13753; 28401</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>7581; 20050</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4898; 14488</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>27389; 46282</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>53646; 79871</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>19570; 37372</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>21733; 37475</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>70711; 93536</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>205061</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>152372</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>151995</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>209966</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>113018</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>124186</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>131034</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>214322</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>318079</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>276558</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>283029</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>424288</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>182842; 226766</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>133156; 170842</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>132290; 170699</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>191466; 227618</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>99095; 129325</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>108010; 138217</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>115947; 145027</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>149821; 243927</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>292085; 343979</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>252559; 300396</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>256966; 307060</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>354902; 460070</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>